--- a/data/trans_orig/P36B03_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B03_2023-Estudios-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
+          <t>Población según la frecuencia de consumo de pan, cereales en 2023 (Tasa respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>80,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>83,07%</t>
+          <t>83,08%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>86,9%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,9%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,26%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>81,42%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>79,64%</t>
+          <t>79,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>84,64%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>84,3%</t>
+          <t>84,25%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,09%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>74,16%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>81,24%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>81,06%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>76,37%</t>
+          <t>76,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>80,43%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,8%</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>2790</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2809888</v>
+        <v>2809887</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>81,76%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>81,2%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>83,45%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
